--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1199"/>
+  <dimension ref="A1:I1200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43997,6 +43997,43 @@
         </is>
       </c>
     </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I1200" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1200"/>
+  <dimension ref="A1:I1201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44034,6 +44034,43 @@
         </is>
       </c>
     </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I1201" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1201"/>
+  <dimension ref="A1:I1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44071,6 +44071,43 @@
         </is>
       </c>
     </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I1202" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1202"/>
+  <dimension ref="A1:I1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44108,6 +44108,43 @@
         </is>
       </c>
     </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I1203" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1203"/>
+  <dimension ref="A1:I1204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44145,6 +44145,43 @@
         </is>
       </c>
     </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I1204" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1204"/>
+  <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44182,6 +44182,80 @@
         </is>
       </c>
     </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I1205" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I1206" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44256,6 +44256,43 @@
         </is>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I1207" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44293,6 +44293,41 @@
         </is>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>39000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44328,6 +44328,43 @@
         <v>39000</v>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1209" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44365,6 +44365,43 @@
         </is>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44402,6 +44402,43 @@
         </is>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44439,6 +44439,43 @@
         </is>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44476,6 +44476,43 @@
         </is>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1572"/>
+  <dimension ref="A1:I1573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57078,6 +57078,43 @@
         </is>
       </c>
     </row>
+    <row r="1573">
+      <c r="A1573" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1573" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1573" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1573" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1573" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1573" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G1573" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H1573" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1573" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1573"/>
+  <dimension ref="A1:I1574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57115,6 +57115,43 @@
         </is>
       </c>
     </row>
+    <row r="1574">
+      <c r="A1574" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1574" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1574" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1574" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1574" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1574" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G1574" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H1574" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1574" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1574"/>
+  <dimension ref="A1:I1575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57152,6 +57152,43 @@
         </is>
       </c>
     </row>
+    <row r="1575">
+      <c r="A1575" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1575" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1575" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1575" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1575" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1575" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G1575" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H1575" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1575" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1575"/>
+  <dimension ref="A1:I1576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57189,6 +57189,41 @@
         </is>
       </c>
     </row>
+    <row r="1576">
+      <c r="A1576" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1576" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1576" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1576" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1576" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1576" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1576" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1576" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1576" t="n">
+        <v>61400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1576"/>
+  <dimension ref="A1:I1577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57224,6 +57224,43 @@
         <v>61400</v>
       </c>
     </row>
+    <row r="1577">
+      <c r="A1577" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1577" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1577" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1577" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1577" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1577" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1577" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1577" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1577" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1577"/>
+  <dimension ref="A1:I1578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57261,6 +57261,41 @@
         </is>
       </c>
     </row>
+    <row r="1578">
+      <c r="A1578" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1578" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1578" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1578" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1578" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1578" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1578" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1578" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1578" t="n">
+        <v>60300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1578"/>
+  <dimension ref="A1:I1579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57296,6 +57296,41 @@
         <v>60300</v>
       </c>
     </row>
+    <row r="1579">
+      <c r="A1579" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1579" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1579" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1579" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1579" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1579" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1579" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1579" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1579" t="n">
+        <v>25000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1579"/>
+  <dimension ref="A1:I1580"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57331,6 +57331,41 @@
         <v>25000</v>
       </c>
     </row>
+    <row r="1580">
+      <c r="A1580" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1580" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1580" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1580" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1580" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1580" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G1580" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1580" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I1580" t="n">
+        <v>46300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1580"/>
+  <dimension ref="A1:I1581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57366,6 +57366,41 @@
         <v>46300</v>
       </c>
     </row>
+    <row r="1581">
+      <c r="A1581" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1581" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1581" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1581" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1581" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1581" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1581" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1581" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1581" t="n">
+        <v>383400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1581"/>
+  <dimension ref="A1:I1582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57401,6 +57401,41 @@
         <v>383400</v>
       </c>
     </row>
+    <row r="1582">
+      <c r="A1582" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1582" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1582" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1582" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1582" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F1582" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1582" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1582" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1582" t="n">
+        <v>35000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1582"/>
+  <dimension ref="A1:I1583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57436,6 +57436,41 @@
         <v>35000</v>
       </c>
     </row>
+    <row r="1583">
+      <c r="A1583" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1583" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1583" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1583" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1583" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1583" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1583" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1583" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1583" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1642"/>
+  <dimension ref="A1:I1643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59536,6 +59536,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1643">
+      <c r="A1643" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1643" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1643" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1643" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1643" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1643" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1643" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1643" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1643" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1643"/>
+  <dimension ref="A1:I1644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59573,6 +59573,41 @@
         </is>
       </c>
     </row>
+    <row r="1644">
+      <c r="A1644" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1644" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1644" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1644" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1644" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1644" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1644" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1644" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1644" t="n">
+        <v>18000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1644"/>
+  <dimension ref="A1:I1645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59608,6 +59608,43 @@
         <v>18000</v>
       </c>
     </row>
+    <row r="1645">
+      <c r="A1645" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1645" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1645" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1645" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1645" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1645" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1645" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1645" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1645" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1645"/>
+  <dimension ref="A1:I1646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59645,6 +59645,43 @@
         </is>
       </c>
     </row>
+    <row r="1646">
+      <c r="A1646" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1646" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1646" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1646" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1646" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1646" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1646" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1646" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1646" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1646"/>
+  <dimension ref="A1:I1647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59682,6 +59682,43 @@
         </is>
       </c>
     </row>
+    <row r="1647">
+      <c r="A1647" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1647" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1647" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1647" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1647" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1647" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1647" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1647" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1647" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1647"/>
+  <dimension ref="A1:I1648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59719,6 +59719,43 @@
         </is>
       </c>
     </row>
+    <row r="1648">
+      <c r="A1648" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1648" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1648" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1648" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1648" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1648" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1648" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1648" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1648" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1648"/>
+  <dimension ref="A1:I1649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59756,6 +59756,43 @@
         </is>
       </c>
     </row>
+    <row r="1649">
+      <c r="A1649" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1649" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1649" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1649" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1649" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1649" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1649" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1649" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1649" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1649"/>
+  <dimension ref="A1:I1650"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59793,6 +59793,43 @@
         </is>
       </c>
     </row>
+    <row r="1650">
+      <c r="A1650" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1650" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1650" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1650" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1650" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1650" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1650" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1650" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1650" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1650"/>
+  <dimension ref="A1:I1651"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59830,6 +59830,43 @@
         </is>
       </c>
     </row>
+    <row r="1651">
+      <c r="A1651" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1651" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1651" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1651" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1651" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1651" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1651" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1651" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1651" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1651"/>
+  <dimension ref="A1:I1652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59867,6 +59867,43 @@
         </is>
       </c>
     </row>
+    <row r="1652">
+      <c r="A1652" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1652" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1652" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1652" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1652" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1652" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1652" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1652" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1652" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1652"/>
+  <dimension ref="A1:I1654"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59904,6 +59904,76 @@
         </is>
       </c>
     </row>
+    <row r="1653">
+      <c r="A1653" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1653" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1653" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1653" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1653" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F1653" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1653" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H1653" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1653" t="n">
+        <v>13300</v>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1654" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1654" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1654" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1654" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1654" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G1654" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1654" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I1654" t="n">
+        <v>18500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1654"/>
+  <dimension ref="A1:I1655"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59974,6 +59974,43 @@
         <v>18500</v>
       </c>
     </row>
+    <row r="1655">
+      <c r="A1655" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1655" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1655" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1655" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1655" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F1655" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G1655" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H1655" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I1655" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1655"/>
+  <dimension ref="A1:I1658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60011,6 +60011,113 @@
         </is>
       </c>
     </row>
+    <row r="1656">
+      <c r="A1656" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1656" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1656" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1656" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1656" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1656" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G1656" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1656" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I1656" t="n">
+        <v>188600</v>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1657" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1657" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1657" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1657" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1657" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G1657" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H1657" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1657" t="n">
+        <v>79800</v>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1658" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1658" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1658" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1658" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1658" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1658" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1658" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1658" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1658"/>
+  <dimension ref="A1:I1659"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60118,6 +60118,43 @@
         </is>
       </c>
     </row>
+    <row r="1659">
+      <c r="A1659" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1659" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1659" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1659" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1659" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1659" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1659" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1659" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1659" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1659"/>
+  <dimension ref="A1:I1660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60155,6 +60155,43 @@
         </is>
       </c>
     </row>
+    <row r="1660">
+      <c r="A1660" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1660" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1660" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1660" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1660" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1660" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1660" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1660" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1660" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0147.xlsx
+++ b/data/0147.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1660"/>
+  <dimension ref="A1:I1663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60192,6 +60192,113 @@
         </is>
       </c>
     </row>
+    <row r="1661">
+      <c r="A1661" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1661" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1661" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1661" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1661" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F1661" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G1661" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="H1661" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="I1661" t="n">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1662" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1662" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1662" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1662" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1662" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1662" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1662" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1662" t="n">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1663" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1663" t="inlineStr">
+        <is>
+          <t>0147</t>
+        </is>
+      </c>
+      <c r="D1663" t="inlineStr">
+        <is>
+          <t>INNITY</t>
+        </is>
+      </c>
+      <c r="E1663" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1663" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1663" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1663" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1663" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
